--- a/data/col_names&data_type-Copy1.xlsx
+++ b/data/col_names&data_type-Copy1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHNW\Challenges\fhnw_ds_fs2021_medical_challenge\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\FHNW\zaRepos\fhnw_ds_fs2021_medical_challenge\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3064D1-CC82-465E-A5D3-AF2A68E30A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45698625-AB62-40AE-8204-EE33913E265C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$C$1:$C$126</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -85,9 +88,9 @@
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1294336D-8DA2-4E8C-B43F-D4C8D4D6473D}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     This is anatomical loction of the diseae within the eye and carries importance because of its systemic disease associations, needing more reatment and vision loss risk. 
 if needed posterior and pan can be collapsed as pan/post
 OR 
@@ -96,34 +99,34 @@
     </comment>
     <comment ref="F1" authorId="1" shapeId="0" xr:uid="{E52C2B88-9333-4CF5-B106-5FC077AB73C2}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Categorical diagnosis is something we created. this is something one would not know when patient is seen on the first exam (unlike anatomical) but rather decied based on clinical exam, history and laboratory workup. WDS is white dot syndromes and encompasses several specific diagnoses.</t>
       </text>
     </comment>
     <comment ref="I1" authorId="2" shapeId="0" xr:uid="{34B5910C-C346-4351-BCA8-6197B4DA3695}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     this is probably one of the most important oitcome variables. if needed infectious uveitis entities such as ARN and Toxo and Tuberculosis can be all collapsed together
 Note that tuberculosis and syphilis will have theior associated labs that is predictive (highly) of these diagnoses while ARN and Toxo probably wont. so one can collapse these while looking for trends in other lab values (The autoimmune labs, cbc or chem).
 Diagnoses that have -not uveitis can all be collapsed as not uveitis as a control group.
 if it says SLE that means SLE associated uveitis
 if it says bx proven sarcoidosis that meand biopsy proven sarcoidosis associated uveitis
-Antwort:
+Reply:
     some of the rare diagnosis such as OIS can be excluded/ignored
-Antwort:
+Reply:
     postop can also be collapsed with not uveitis- even though it is we think its a very local response and that it shouldnt have any lab indicators..
 Eales- if rare enough can be excluded</t>
       </text>
     </comment>
     <comment ref="E2" authorId="3" shapeId="0" xr:uid="{FC489A61-EA31-4E52-9B89-76AD99CA4169}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     This is anatomical loction of the diseae within the eye and carries importance because of its systemic disease associations, needing more reatment and vision loss risk. 
 if needed posterior and pan can be collapsed as pan/post
 OR 
@@ -132,202 +135,202 @@
     </comment>
     <comment ref="F2" authorId="4" shapeId="0" xr:uid="{CAB852E6-B601-421D-87E3-C248EEB350C5}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Categorical diagnosis is something we created. this is something one would not know when patient is seen on the first exam (unlike anatomical) but rather decied based on clinical exam, history and laboratory workup. WDS is white dot syndromes and encompasses several specific diagnoses.</t>
       </text>
     </comment>
     <comment ref="I2" authorId="5" shapeId="0" xr:uid="{C9AB90EC-932C-4EC6-800E-9D74DF1707AC}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     this is probably one of the most important oitcome variables. if needed infectious uveitis entities such as ARN and Toxo and Tuberculosis can be all collapsed together
 Note that tuberculosis and syphilis will have theior associated labs that is predictive (highly) of these diagnoses while ARN and Toxo probably wont. so one can collapse these while looking for trends in other lab values (The autoimmune labs, cbc or chem).
 Diagnoses that have -not uveitis can all be collapsed as not uveitis as a control group.
 if it says SLE that means SLE associated uveitis
 if it says bx proven sarcoidosis that meand biopsy proven sarcoidosis associated uveitis
-Antwort:
+Reply:
     some of the rare diagnosis such as OIS can be excluded/ignored
-Antwort:
+Reply:
     postop can also be collapsed with not uveitis- even though it is we think its a very local response and that it shouldnt have any lab indicators..
 Eales- if rare enough can be excluded</t>
       </text>
     </comment>
     <comment ref="BT3" authorId="6" shapeId="0" xr:uid="{BBD95388-1168-45EF-8BCE-963794E4CE3E}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando</t>
       </text>
     </comment>
     <comment ref="BW3" authorId="7" shapeId="0" xr:uid="{21C60912-D7AB-4AB8-8FE2-ABED206C4DD4}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernnado</t>
       </text>
     </comment>
     <comment ref="BZ3" authorId="8" shapeId="0" xr:uid="{E28145F4-E687-4D9A-9AEC-C2CDA22520B3}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     NEG and &lt;&gt; what to do</t>
       </text>
     </comment>
     <comment ref="CL3" authorId="9" shapeId="0" xr:uid="{71372D35-8D52-433E-A683-F0744411E21F}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="CM3" authorId="10" shapeId="0" xr:uid="{6897137D-454F-416C-9DC3-7A2E53E8401D}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="CN3" authorId="11" shapeId="0" xr:uid="{734EE11A-54D1-4896-A8FD-69BEDA0ED369}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="CO3" authorId="12" shapeId="0" xr:uid="{04BF3592-225B-43CF-841D-A057D33A4E6E}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="CP3" authorId="13" shapeId="0" xr:uid="{ABE425F5-5ACA-40D8-A890-D6895633D4BF}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="CQ3" authorId="14" shapeId="0" xr:uid="{BC245D67-C7BE-4CAD-8D0E-39B785BFBBB1}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="CR3" authorId="15" shapeId="0" xr:uid="{AB932235-C230-4CD0-AABC-7799D977CDBE}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="CS3" authorId="16" shapeId="0" xr:uid="{8A766FB4-E2D3-4E1C-8C6D-4DE8A91954A8}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="CT3" authorId="17" shapeId="0" xr:uid="{5C6AFFDF-0052-4C6F-91BB-0460062C06C6}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="CU3" authorId="18" shapeId="0" xr:uid="{B2322DDF-E9AB-4A35-AE9A-0AD0D1DD7BFF}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="CV3" authorId="19" shapeId="0" xr:uid="{AC119A34-CD41-4158-9C14-8A7C4585227E}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="CW3" authorId="20" shapeId="0" xr:uid="{FC7AF642-48F2-4273-AAD2-F474697B2E33}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="CX3" authorId="21" shapeId="0" xr:uid="{3C6B0171-8411-467E-B089-8FCDDDA17969}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="CY3" authorId="22" shapeId="0" xr:uid="{7C18A454-182B-4A16-96B3-C469693D22DD}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="CZ3" authorId="23" shapeId="0" xr:uid="{256E45E2-8DA8-40CC-8B3C-D96B1EE71ACB}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="DA3" authorId="24" shapeId="0" xr:uid="{550728FE-0F60-4F7B-B2C8-8A50D516D89E}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="DB3" authorId="25" shapeId="0" xr:uid="{1F0751B5-564E-4B62-A196-A20501901BC6}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="DC3" authorId="26" shapeId="0" xr:uid="{0902D225-0368-47FF-AB9D-F20AFF243179}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="A5" authorId="27" shapeId="0" xr:uid="{5F61920A-EF5A-4A02-962B-57C7EDA359AF}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     This is anatomical loction of the diseae within the eye and carries importance because of its systemic disease associations, needing more reatment and vision loss risk. 
 if needed posterior and pan can be collapsed as pan/post
 OR 
@@ -336,9 +339,9 @@
     </comment>
     <comment ref="B5" authorId="28" shapeId="0" xr:uid="{C5B27EDB-CDE9-4DD5-9528-28D42F62FD47}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     This is anatomical loction of the diseae within the eye and carries importance because of its systemic disease associations, needing more reatment and vision loss risk. 
 if needed posterior and pan can be collapsed as pan/post
 OR 
@@ -347,219 +350,219 @@
     </comment>
     <comment ref="A6" authorId="29" shapeId="0" xr:uid="{3DCA9D60-771E-46A9-BA97-5AA82FB1D08F}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Categorical diagnosis is something we created. this is something one would not know when patient is seen on the first exam (unlike anatomical) but rather decied based on clinical exam, history and laboratory workup. WDS is white dot syndromes and encompasses several specific diagnoses.</t>
       </text>
     </comment>
     <comment ref="B6" authorId="30" shapeId="0" xr:uid="{ED4C4AC7-29DF-40DC-9B6C-EA495B87FA91}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Categorical diagnosis is something we created. this is something one would not know when patient is seen on the first exam (unlike anatomical) but rather decied based on clinical exam, history and laboratory workup. WDS is white dot syndromes and encompasses several specific diagnoses.</t>
       </text>
     </comment>
     <comment ref="A9" authorId="31" shapeId="0" xr:uid="{7A6E1298-37FA-4D14-8290-9CFB83D11969}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     this is probably one of the most important oitcome variables. if needed infectious uveitis entities such as ARN and Toxo and Tuberculosis can be all collapsed together
 Note that tuberculosis and syphilis will have theior associated labs that is predictive (highly) of these diagnoses while ARN and Toxo probably wont. so one can collapse these while looking for trends in other lab values (The autoimmune labs, cbc or chem).
 Diagnoses that have -not uveitis can all be collapsed as not uveitis as a control group.
 if it says SLE that means SLE associated uveitis
 if it says bx proven sarcoidosis that meand biopsy proven sarcoidosis associated uveitis
-Antwort:
+Reply:
     some of the rare diagnosis such as OIS can be excluded/ignored
-Antwort:
+Reply:
     postop can also be collapsed with not uveitis- even though it is we think its a very local response and that it shouldnt have any lab indicators..
 Eales- if rare enough can be excluded</t>
       </text>
     </comment>
     <comment ref="B9" authorId="32" shapeId="0" xr:uid="{226CBE2D-0008-4610-9C99-854D8118AE81}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     this is probably one of the most important oitcome variables. if needed infectious uveitis entities such as ARN and Toxo and Tuberculosis can be all collapsed together
 Note that tuberculosis and syphilis will have theior associated labs that is predictive (highly) of these diagnoses while ARN and Toxo probably wont. so one can collapse these while looking for trends in other lab values (The autoimmune labs, cbc or chem).
 Diagnoses that have -not uveitis can all be collapsed as not uveitis as a control group.
 if it says SLE that means SLE associated uveitis
 if it says bx proven sarcoidosis that meand biopsy proven sarcoidosis associated uveitis
-Antwort:
+Reply:
     some of the rare diagnosis such as OIS can be excluded/ignored
-Antwort:
+Reply:
     postop can also be collapsed with not uveitis- even though it is we think its a very local response and that it shouldnt have any lab indicators..
 Eales- if rare enough can be excluded</t>
       </text>
     </comment>
     <comment ref="C72" authorId="33" shapeId="0" xr:uid="{CF55DE08-CB60-4A44-BD29-90FF792EA062}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando</t>
       </text>
     </comment>
     <comment ref="C75" authorId="34" shapeId="0" xr:uid="{14C77381-A955-47BC-92EE-282A79F963D5}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernnado</t>
       </text>
     </comment>
     <comment ref="C78" authorId="35" shapeId="0" xr:uid="{9EF3E8FC-11BE-488C-B4D4-69C75FBBBC42}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     NEG and &lt;&gt; what to do</t>
       </text>
     </comment>
     <comment ref="C90" authorId="36" shapeId="0" xr:uid="{8C95763D-914E-4A8D-876E-99A4EF111683}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C91" authorId="37" shapeId="0" xr:uid="{7F32A1CA-9ADC-4024-B9E0-224A477F5762}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C92" authorId="38" shapeId="0" xr:uid="{8FFCB9D3-962F-46C7-93D4-079A87E71098}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C93" authorId="39" shapeId="0" xr:uid="{E2CD0F49-A10D-45BC-98C5-8E7BCB3D9957}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C94" authorId="40" shapeId="0" xr:uid="{BCD433C3-DE59-4343-A114-60C3D4197DE3}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C95" authorId="41" shapeId="0" xr:uid="{B0B6E852-7183-4D2B-BDB1-CF1AEA5516FF}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C96" authorId="42" shapeId="0" xr:uid="{2E2FF957-5254-4D63-A609-230F8C069EA9}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C97" authorId="43" shapeId="0" xr:uid="{40A33B80-4C9F-409D-83F3-30FB4319539E}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C98" authorId="44" shapeId="0" xr:uid="{17D546C9-F564-415F-80A3-6FCD1F136A91}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C99" authorId="45" shapeId="0" xr:uid="{E2D7CA9D-26C8-498A-8EAF-77BFC18B915D}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C100" authorId="46" shapeId="0" xr:uid="{85EEC572-DDB3-411B-90CF-7D750BA80689}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C101" authorId="47" shapeId="0" xr:uid="{DF3526D9-42E3-4036-A077-6DBAD29E1E79}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C102" authorId="48" shapeId="0" xr:uid="{70EEF8E7-DFB1-42FF-A670-6F6C5A9B5C74}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C103" authorId="49" shapeId="0" xr:uid="{E7C3F12D-6879-494B-BB58-D818B3457061}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C104" authorId="50" shapeId="0" xr:uid="{E9B2AF62-CE67-41B6-9335-DFE35370298E}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C105" authorId="51" shapeId="0" xr:uid="{ED7D6398-8324-4096-A2C6-1B29232F1682}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C106" authorId="52" shapeId="0" xr:uid="{B0E3E443-A15C-4332-A4E6-7870036F5121}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
     <comment ref="C107" authorId="53" shapeId="0" xr:uid="{A538E7AE-3DE1-4553-9CEF-EF160CDE53AA}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     ask Fernando &amp; Drs to learn how to treat</t>
       </text>
     </comment>
@@ -568,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="173">
   <si>
     <t>Gender</t>
   </si>
@@ -937,9 +940,6 @@
     </r>
   </si>
   <si>
-    <t>ordinal</t>
-  </si>
-  <si>
     <t>categorical</t>
   </si>
   <si>
@@ -1109,7 +1109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1124,12 +1124,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1157,7 +1151,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1665,127 +1659,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DC126"/>
+  <dimension ref="A1:DC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="38.28515625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="34" width="9.28515625" customWidth="1"/>
-    <col min="35" max="35" width="16.5703125" customWidth="1"/>
-    <col min="36" max="64" width="9.28515625" customWidth="1"/>
-    <col min="65" max="65" width="10.5703125" customWidth="1"/>
-    <col min="66" max="68" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="34" width="9.33203125" customWidth="1"/>
+    <col min="35" max="35" width="16.5546875" customWidth="1"/>
+    <col min="36" max="64" width="9.33203125" customWidth="1"/>
+    <col min="65" max="65" width="10.5546875" customWidth="1"/>
+    <col min="66" max="68" width="9.33203125" customWidth="1"/>
     <col min="69" max="69" width="12" customWidth="1"/>
-    <col min="70" max="74" width="9.28515625" customWidth="1"/>
-    <col min="75" max="75" width="13.7109375" customWidth="1"/>
-    <col min="76" max="89" width="9.28515625" customWidth="1"/>
-    <col min="90" max="90" width="8.5703125" customWidth="1"/>
-    <col min="91" max="91" width="11.5703125" customWidth="1"/>
-    <col min="92" max="92" width="12.28515625" customWidth="1"/>
-    <col min="93" max="93" width="9.28515625" customWidth="1"/>
-    <col min="94" max="95" width="11.28515625" customWidth="1"/>
+    <col min="70" max="74" width="9.33203125" customWidth="1"/>
+    <col min="75" max="75" width="13.6640625" customWidth="1"/>
+    <col min="76" max="89" width="9.33203125" customWidth="1"/>
+    <col min="90" max="90" width="8.5546875" customWidth="1"/>
+    <col min="91" max="91" width="11.5546875" customWidth="1"/>
+    <col min="92" max="92" width="12.33203125" customWidth="1"/>
+    <col min="93" max="93" width="9.33203125" customWidth="1"/>
+    <col min="94" max="95" width="11.33203125" customWidth="1"/>
     <col min="96" max="96" width="9" customWidth="1"/>
-    <col min="97" max="98" width="9.28515625" customWidth="1"/>
-    <col min="99" max="99" width="34.7109375" customWidth="1"/>
-    <col min="100" max="101" width="9.28515625" customWidth="1"/>
-    <col min="102" max="102" width="30.7109375" customWidth="1"/>
-    <col min="103" max="104" width="9.28515625" customWidth="1"/>
-    <col min="105" max="105" width="19.28515625" customWidth="1"/>
-    <col min="106" max="106" width="10.7109375" customWidth="1"/>
-    <col min="107" max="107" width="9.28515625" customWidth="1"/>
+    <col min="97" max="98" width="9.33203125" customWidth="1"/>
+    <col min="99" max="99" width="34.6640625" customWidth="1"/>
+    <col min="100" max="101" width="9.33203125" customWidth="1"/>
+    <col min="102" max="102" width="30.6640625" customWidth="1"/>
+    <col min="103" max="104" width="9.33203125" customWidth="1"/>
+    <col min="105" max="105" width="19.33203125" customWidth="1"/>
+    <col min="106" max="106" width="10.6640625" customWidth="1"/>
+    <col min="107" max="107" width="9.33203125" customWidth="1"/>
     <col min="108" max="108" width="12" customWidth="1"/>
-    <col min="109" max="116" width="9.28515625" customWidth="1"/>
-    <col min="117" max="117" width="10.42578125" customWidth="1"/>
-    <col min="118" max="118" width="10.85546875" customWidth="1"/>
-    <col min="119" max="119" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="109" max="116" width="9.33203125" customWidth="1"/>
+    <col min="117" max="117" width="10.44140625" customWidth="1"/>
+    <col min="118" max="118" width="10.88671875" customWidth="1"/>
+    <col min="119" max="119" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -1793,7 +1787,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:107" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:107" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1801,21 +1795,21 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1823,21 +1817,21 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1845,65 +1839,65 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1911,10 +1905,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1922,18 +1916,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1941,10 +1935,10 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1952,18 +1946,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1971,10 +1965,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1982,18 +1976,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -2001,10 +1995,10 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2012,18 +2006,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -2031,10 +2025,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2042,18 +2036,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -2061,10 +2055,10 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2072,18 +2066,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2091,10 +2085,10 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -2102,18 +2096,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -2121,10 +2115,10 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -2132,18 +2126,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2151,10 +2145,10 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -2162,18 +2156,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -2181,10 +2175,10 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -2192,18 +2186,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -2211,10 +2205,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -2222,18 +2216,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -2241,10 +2235,10 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -2252,18 +2246,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -2271,10 +2265,10 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -2282,18 +2276,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -2301,10 +2295,10 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -2312,18 +2306,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -2331,10 +2325,10 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -2342,18 +2336,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -2361,10 +2355,10 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -2372,29 +2366,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -2402,10 +2396,10 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -2413,18 +2407,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -2432,10 +2426,10 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -2443,18 +2437,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -2462,10 +2456,10 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -2473,18 +2467,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -2492,10 +2486,10 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -2503,18 +2497,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C78" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -2522,10 +2516,10 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -2533,18 +2527,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -2552,10 +2546,10 @@
         <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -2563,18 +2557,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -2582,10 +2576,10 @@
         <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -2593,18 +2587,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -2612,10 +2606,10 @@
         <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -2623,18 +2617,18 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C90" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -2642,10 +2636,10 @@
         <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -2653,21 +2647,21 @@
         <v>88</v>
       </c>
       <c r="C92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -2675,10 +2669,10 @@
         <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -2686,21 +2680,21 @@
         <v>91</v>
       </c>
       <c r="C95" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -2708,10 +2702,10 @@
         <v>93</v>
       </c>
       <c r="C97" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -2719,21 +2713,21 @@
         <v>94</v>
       </c>
       <c r="C98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C99" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -2741,10 +2735,10 @@
         <v>96</v>
       </c>
       <c r="C100" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -2752,21 +2746,21 @@
         <v>97</v>
       </c>
       <c r="C101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -2774,10 +2768,10 @@
         <v>99</v>
       </c>
       <c r="C103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -2785,21 +2779,21 @@
         <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -2807,10 +2801,10 @@
         <v>102</v>
       </c>
       <c r="C106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -2818,21 +2812,21 @@
         <v>103</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -2840,10 +2834,10 @@
         <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -2851,18 +2845,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -2870,10 +2864,10 @@
         <v>108</v>
       </c>
       <c r="C112" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>109</v>
       </c>
@@ -2881,18 +2875,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C114" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>111</v>
       </c>
@@ -2900,10 +2894,10 @@
         <v>111</v>
       </c>
       <c r="C115" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -2911,111 +2905,41 @@
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C117" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C118" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C119" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>109</v>
-      </c>
-      <c r="B120" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>110</v>
-      </c>
-      <c r="B121" t="s">
-        <v>158</v>
-      </c>
-      <c r="C121" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>111</v>
-      </c>
-      <c r="B122" t="s">
-        <v>111</v>
-      </c>
-      <c r="C122" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>112</v>
-      </c>
-      <c r="B123" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>113</v>
-      </c>
-      <c r="B124" t="s">
-        <v>159</v>
-      </c>
-      <c r="C124" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>114</v>
-      </c>
-      <c r="B125" t="s">
-        <v>160</v>
-      </c>
-      <c r="C125" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>115</v>
-      </c>
-      <c r="B126" t="s">
-        <v>161</v>
-      </c>
-      <c r="C126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C126" xr:uid="{D1F2C305-9670-42EE-8D24-097914B769E8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
